--- a/dataTest/choices.xlsx
+++ b/dataTest/choices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10526\PycharmProjects\Label--Crowdsourcing\dataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E3E0C4-0620-4A41-8043-79831252F9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094F87F6-76AF-4EC1-8BF7-32C416898FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>今天吃什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜色</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>这是猫还是狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫的颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -39,39 +51,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>蓝色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五彩斑斓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>红色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蓝色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级无敌大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锅巴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重庆小面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大</t>
+    <t>绿色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩虹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,58 +409,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C5" t="s">
-        <v>8</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B12" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/dataTest/choices.xlsx
+++ b/dataTest/choices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10526\PycharmProjects\Label--Crowdsourcing\dataTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10526\IdeaProjects\Python\Label--Crowdsourcing\dataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094F87F6-76AF-4EC1-8BF7-32C416898FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835E4371-DED6-448C-B02D-7F0B0C6A644C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,65 +25,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>这是猫还是狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫的颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五彩斑斓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>透明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>橘色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩虹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉色</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>负面情感识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对商品本身不满意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对商品运输不满意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非负面情感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题维度识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品有无货状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流：配送、快递等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务：退换货、客服、京东相关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,20 +385,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="22.3984375" customWidth="1"/>
+    <col min="2" max="2" width="25.1484375" customWidth="1"/>
+    <col min="3" max="3" width="27.09765625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -430,7 +411,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
@@ -438,52 +419,20 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="B6" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="B12" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
